--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H2">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I2">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J2">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N2">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q2">
-        <v>75.14299804176666</v>
+        <v>4.370656110315</v>
       </c>
       <c r="R2">
-        <v>676.2869823759</v>
+        <v>39.335904992835</v>
       </c>
       <c r="S2">
-        <v>0.184249933332113</v>
+        <v>0.04017301100223517</v>
       </c>
       <c r="T2">
-        <v>0.1842499333321131</v>
+        <v>0.04017301100223517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H3">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I3">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J3">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q3">
-        <v>269.7777708563</v>
+        <v>87.72016470534</v>
       </c>
       <c r="R3">
-        <v>2427.9999377067</v>
+        <v>789.48148234806</v>
       </c>
       <c r="S3">
-        <v>0.6614925886658262</v>
+        <v>0.806282409981582</v>
       </c>
       <c r="T3">
-        <v>0.6614925886658264</v>
+        <v>0.806282409981582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.356725</v>
+        <v>18.975105</v>
       </c>
       <c r="H4">
-        <v>175.070175</v>
+        <v>56.925315</v>
       </c>
       <c r="I4">
-        <v>0.9850455027887332</v>
+        <v>0.9552145540969871</v>
       </c>
       <c r="J4">
-        <v>0.9850455027887334</v>
+        <v>0.955214554096987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N4">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q4">
-        <v>56.81219755942499</v>
+        <v>11.832540251145</v>
       </c>
       <c r="R4">
-        <v>511.3097780348249</v>
+        <v>106.492862260305</v>
       </c>
       <c r="S4">
-        <v>0.139302980790794</v>
+        <v>0.1087591331131699</v>
       </c>
       <c r="T4">
-        <v>0.139302980790794</v>
+        <v>0.1087591331131699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.936176</v>
       </c>
       <c r="I5">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J5">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N5">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q5">
-        <v>0.4018221340942222</v>
+        <v>0.07187844906488888</v>
       </c>
       <c r="R5">
-        <v>3.616399206848</v>
+        <v>0.646906041584</v>
       </c>
       <c r="S5">
-        <v>0.0009852641410058808</v>
+        <v>0.0006606728262817433</v>
       </c>
       <c r="T5">
-        <v>0.000985264141005881</v>
+        <v>0.0006606728262817433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.936176</v>
       </c>
       <c r="I6">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J6">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q6">
         <v>1.442618506602666</v>
@@ -818,10 +818,10 @@
         <v>12.983566559424</v>
       </c>
       <c r="S6">
-        <v>0.003537287180336791</v>
+        <v>0.01325986938231115</v>
       </c>
       <c r="T6">
-        <v>0.003537287180336791</v>
+        <v>0.01325986938231115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.936176</v>
       </c>
       <c r="I7">
-        <v>0.005267464653066949</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="J7">
-        <v>0.00526746465306695</v>
+        <v>0.01570916103663723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N7">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q7">
-        <v>0.303799409936</v>
+        <v>0.1945942714968889</v>
       </c>
       <c r="R7">
-        <v>2.734194689424</v>
+        <v>1.751348443472</v>
       </c>
       <c r="S7">
-        <v>0.0007449133317242775</v>
+        <v>0.001788618828044341</v>
       </c>
       <c r="T7">
-        <v>0.0007449133317242776</v>
+        <v>0.001788618828044341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5738856666666666</v>
+        <v>0.5775933333333333</v>
       </c>
       <c r="H8">
-        <v>1.721657</v>
+        <v>1.73278</v>
       </c>
       <c r="I8">
-        <v>0.00968703255819983</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="J8">
-        <v>0.009687032558199832</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N8">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q8">
-        <v>0.7389634960928888</v>
+        <v>0.1330407305577778</v>
       </c>
       <c r="R8">
-        <v>6.650671464836</v>
+        <v>1.19736657502</v>
       </c>
       <c r="S8">
-        <v>0.001811931629535217</v>
+        <v>0.001222847690951786</v>
       </c>
       <c r="T8">
-        <v>0.001811931629535218</v>
+        <v>0.001222847690951786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5738856666666666</v>
+        <v>0.5775933333333333</v>
       </c>
       <c r="H9">
-        <v>1.721657</v>
+        <v>1.73278</v>
       </c>
       <c r="I9">
-        <v>0.00968703255819983</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="J9">
-        <v>0.009687032558199832</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q9">
-        <v>2.653020639518666</v>
+        <v>2.670160841413333</v>
       </c>
       <c r="R9">
-        <v>23.877185755668</v>
+        <v>24.03144757272</v>
       </c>
       <c r="S9">
-        <v>0.006505181969028364</v>
+        <v>0.0245428599625296</v>
       </c>
       <c r="T9">
-        <v>0.006505181969028366</v>
+        <v>0.0245428599625296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5738856666666666</v>
+        <v>0.5775933333333333</v>
       </c>
       <c r="H10">
-        <v>1.721657</v>
+        <v>1.73278</v>
       </c>
       <c r="I10">
-        <v>0.00968703255819983</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="J10">
-        <v>0.009687032558199832</v>
+        <v>0.02907628486637583</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N10">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q10">
-        <v>0.5586966347269999</v>
+        <v>0.3601769985177777</v>
       </c>
       <c r="R10">
-        <v>5.028269712543</v>
+        <v>3.24159298666</v>
       </c>
       <c r="S10">
-        <v>0.001369918959636248</v>
+        <v>0.003310577212894449</v>
       </c>
       <c r="T10">
-        <v>0.001369918959636249</v>
+        <v>0.003310577212894449</v>
       </c>
     </row>
   </sheetData>
